--- a/PIP_WebApp/db_filehandling/XLSX/test.xlsx
+++ b/PIP_WebApp/db_filehandling/XLSX/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,12 @@
     <t>marksheet_id</t>
   </si>
   <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>2021-09-25</t>
+  </si>
+  <si>
     <t>Microcontrollers</t>
   </si>
   <si>
@@ -136,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Sprachphilosophie</t>
+  </si>
+  <si>
+    <t>Psicología del Género</t>
+  </si>
+  <si>
+    <t>Politikethnologie</t>
   </si>
   <si>
     <t>PASS</t>
@@ -708,7 +720,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -757,13 +769,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -792,13 +804,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -827,11 +839,14 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -859,11 +874,14 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
@@ -891,13 +909,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -926,13 +944,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -961,10 +979,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -993,13 +1014,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1014,6 +1035,76 @@
         <v>4</v>
       </c>
       <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
     </row>
@@ -1038,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
@@ -1069,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>83.33333333333333</v>
@@ -1086,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>83.33333333333333</v>
@@ -1103,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>98.33</v>
+        <v>98.75</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1120,10 +1211,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>87.5</v>
+        <v>91.67</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1170,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1190,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1210,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1243,25 +1334,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>27</v>
@@ -1281,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>5528585846</v>
@@ -1316,13 +1407,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>1791006008</v>
@@ -1351,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>1122973021</v>
@@ -1419,13 +1510,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1442,13 +1533,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -1465,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>

--- a/PIP_WebApp/db_filehandling/XLSX/test.xlsx
+++ b/PIP_WebApp/db_filehandling/XLSX/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,9 @@
     <t>2021-09-25</t>
   </si>
   <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
     <t>Microcontrollers</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
   </si>
   <si>
     <t>Politikethnologie</t>
+  </si>
+  <si>
+    <t>Gobernanza de Datos</t>
   </si>
   <si>
     <t>PASS</t>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -769,13 +775,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -804,13 +810,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -839,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -874,13 +880,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -909,13 +915,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -944,13 +950,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -979,13 +985,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1014,13 +1020,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1049,13 +1055,13 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1084,13 +1090,13 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1106,6 +1112,41 @@
       </c>
       <c r="K11">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
@@ -1160,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>83.33333333333333</v>
@@ -1177,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>83.33333333333333</v>
@@ -1194,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>98.75</v>
@@ -1211,10 +1252,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>91.67</v>
+        <v>91.25</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1261,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1281,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1301,7 +1342,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1334,25 +1375,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>27</v>
@@ -1372,13 +1413,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>5528585846</v>
@@ -1407,13 +1448,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>1791006008</v>
@@ -1442,13 +1483,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>1122973021</v>
@@ -1510,13 +1551,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1533,13 +1574,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -1556,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>

--- a/PIP_WebApp/db_filehandling/XLSX/test.xlsx
+++ b/PIP_WebApp/db_filehandling/XLSX/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Gobernanza de Datos</t>
+  </si>
+  <si>
+    <t>Electric Circuits I</t>
   </si>
   <si>
     <t>PASS</t>
@@ -726,7 +729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,7 +784,7 @@
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -816,7 +819,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -851,7 +854,7 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -886,7 +889,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -921,7 +924,7 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -956,7 +959,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -991,7 +994,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1026,7 +1029,7 @@
         <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1061,7 +1064,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1096,7 +1099,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1131,7 +1134,7 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -1147,6 +1150,41 @@
       </c>
       <c r="K12">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
@@ -1187,7 +1225,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>83.25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1201,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>83.33333333333333</v>
@@ -1218,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>83.33333333333333</v>
@@ -1235,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>98.75</v>
@@ -1252,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>91.25</v>
@@ -1302,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1322,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1342,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1375,25 +1413,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>27</v>
@@ -1413,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>5528585846</v>
@@ -1448,13 +1486,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>1791006008</v>
@@ -1483,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>1122973021</v>
@@ -1551,13 +1589,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1574,13 +1612,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -1597,13 +1635,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
